--- a/tests/archean/reaction_network.xlsx
+++ b/tests/archean/reaction_network.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttntr\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sophiamail-my.sharepoint.com/personal/01043753_sophiamail_sophia_ac_jp/Documents/PATMO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837398C7-89EF-44AC-A09D-D86AD9C49721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{837398C7-89EF-44AC-A09D-D86AD9C49721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC9173C-9264-455B-AB0B-C6C14CCC10C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="276">
   <si>
     <t>@format:idx</t>
   </si>
@@ -807,12 +807,6 @@
   </si>
   <si>
     <t>1.07d-10*0.87</t>
-  </si>
-  <si>
-    <t>COCOOH</t>
-  </si>
-  <si>
-    <t>2.99d-13*exp(-2586/T)</t>
   </si>
   <si>
     <t>((6.9d-31*(T/298)**(-1d0))*M(icell)/(1d0+((6.9d-31*(T/298)**(-1d0))*M(icell)/(2.6d-11)))*6d-1**((1d0+(log10((6.9d-31*(T/298)**(-1d0))*M(icell)/(2.6d-11)))**(2d0))**(-1d0)))/M(icell)</t>
@@ -1221,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5454,16 +5448,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D207" t="s">
+        <v>41</v>
       </c>
       <c r="E207" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" t="s">
         <v>257</v>
-      </c>
-      <c r="H207" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5471,22 +5471,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E208" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5497,16 +5494,16 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E209" t="s">
         <v>59</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H209" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5517,16 +5514,16 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E210" t="s">
         <v>59</v>
       </c>
       <c r="F210" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5534,19 +5531,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E211" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5554,19 +5551,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E212" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H212" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5574,19 +5571,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
         <v>42</v>
       </c>
-      <c r="E213" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213" t="s">
-        <v>12</v>
-      </c>
       <c r="H213" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5594,16 +5588,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>49</v>
       </c>
       <c r="H214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5611,19 +5608,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H215" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5631,19 +5628,22 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E216" t="s">
         <v>61</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G216" t="s">
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -5651,22 +5651,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E217" t="s">
+        <v>59</v>
+      </c>
+      <c r="F217" t="s">
         <v>61</v>
       </c>
-      <c r="F217" t="s">
-        <v>42</v>
-      </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
       <c r="H217" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -5674,19 +5671,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C218" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E218" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F218" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -5694,19 +5691,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
         <v>52</v>
       </c>
       <c r="E219" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
       </c>
+      <c r="G219" t="s">
+        <v>12</v>
+      </c>
       <c r="H219" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -5714,22 +5714,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C220" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -5740,16 +5737,16 @@
         <v>61</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H221" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -5757,19 +5754,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E222" t="s">
-        <v>25</v>
-      </c>
-      <c r="F222" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -5777,16 +5771,19 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C223" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E223" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F223" t="s">
+        <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -5794,19 +5791,19 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E224" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -5814,19 +5811,19 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C225" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -5834,19 +5831,19 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>60</v>
+      </c>
+      <c r="C226" t="s">
         <v>63</v>
       </c>
-      <c r="C226" t="s">
-        <v>9</v>
-      </c>
       <c r="E226" t="s">
+        <v>61</v>
+      </c>
+      <c r="F226" t="s">
         <v>64</v>
       </c>
-      <c r="F226" t="s">
-        <v>11</v>
-      </c>
       <c r="H226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -5854,38 +5851,18 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" t="s">
         <v>63</v>
       </c>
-      <c r="E227" t="s">
-        <v>61</v>
-      </c>
       <c r="F227" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="2">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>64</v>
-      </c>
-      <c r="C228" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" t="s">
-        <v>63</v>
-      </c>
-      <c r="F228" t="s">
-        <v>5</v>
-      </c>
-      <c r="H228" t="s">
         <v>181</v>
       </c>
     </row>
